--- a/biology/Zoologie/Chorthippus_albomarginatus/Chorthippus_albomarginatus.xlsx
+++ b/biology/Zoologie/Chorthippus_albomarginatus/Chorthippus_albomarginatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus albomarginatus, le Criquet marginé, est une espèce de criquets de la famille des Acrididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée Chorthippus albomarginatus par De Geer en 1773.Synonymes : Chorthippus albomarginatus albomarginatus De Geer 1773; Chorthippus elegans Charpentier, 1825[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée Chorthippus albomarginatus par De Geer en 1773.Synonymes : Chorthippus albomarginatus albomarginatus De Geer 1773; Chorthippus elegans Charpentier, 1825.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « sous-espèce nominative » (celle présente en France suppose-t-on) est largement répandue, au nord jusqu’en Scandinavie moyenne, à l’est jusqu’en Sibérie occidentale[2]. L'holotype de l'espèce est un individu femelle, probablement récoltée dans une prairie située non loin de Lövstabruck (N 60° 24’, E 17° 53’, province : Uppland, département : Uppsala), commune où Charles de Geer avait un manoir (où il est mort). Cet exemplaire est aujourd'hui conservé au Musée d’histoire naturelle de Stockholm[2]. La (re)découverte de cet holotype « invalide les néotypes désignés par HARZ (1975) »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « sous-espèce nominative » (celle présente en France suppose-t-on) est largement répandue, au nord jusqu’en Scandinavie moyenne, à l’est jusqu’en Sibérie occidentale. L'holotype de l'espèce est un individu femelle, probablement récoltée dans une prairie située non loin de Lövstabruck (N 60° 24’, E 17° 53’, province : Uppland, département : Uppsala), commune où Charles de Geer avait un manoir (où il est mort). Cet exemplaire est aujourd'hui conservé au Musée d’histoire naturelle de Stockholm. La (re)découverte de cet holotype « invalide les néotypes désignés par HARZ (1975) ».
 La littérature cite d'autres sous-espèces dont :
-Ch. a. hakkaricus Demirsov 1979, en Turquie[2] ;
-Ch. a. karelini (Uvarov, 1910) dans le sud-est de la Russie (région d’Orenbourg), le Kazakhstan, l’Iran, l’Asie Centrale et la Turquie[2] ;
-Ch. a. caliginosus Mishchenko 1951, dans le nord de la Chine (ces deux derniers taxons sont même considérés parfois comme espèces valides)[2].
-Dans les Balkans C. albomarginatus disparait au profit de C. dichrous (Eversmann, 1859), une espèce très proche[2] à la suite du transfert dans ce musée de la collection De Geer par C. J. Sundevall en 1834.
+Ch. a. hakkaricus Demirsov 1979, en Turquie ;
+Ch. a. karelini (Uvarov, 1910) dans le sud-est de la Russie (région d’Orenbourg), le Kazakhstan, l’Iran, l’Asie Centrale et la Turquie ;
+Ch. a. caliginosus Mishchenko 1951, dans le nord de la Chine (ces deux derniers taxons sont même considérés parfois comme espèces valides).
+Dans les Balkans C. albomarginatus disparait au profit de C. dichrous (Eversmann, 1859), une espèce très proche à la suite du transfert dans ce musée de la collection De Geer par C. J. Sundevall en 1834.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure 13 à 15 mm et la femelle 18 à 21 mm.Colorations variables : brun, gris, jaunâtre, vert, chez le mâle; beige ou brun clair avec une bande verte dorsale chez la femelle. Une bande blanche longitudinale souligne le bord inférieur des élytres (d'où le nom vernaculaire « marginé »), mais elle est souvent absente chez le mâle. Dans les deux sexes, les carènes latérales du pronotum sont presque rectilignes.
 </t>
@@ -609,9 +627,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce criquet de distribution eurosibérienne (également présent en Chine[2]) est signalé de tous les pays d'Europe occidentale, plus fréquent dans les zones littorales ; en France, il semble absent de la plupart des départements de l'est et du sud (Corse comprise).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce criquet de distribution eurosibérienne (également présent en Chine) est signalé de tous les pays d'Europe occidentale, plus fréquent dans les zones littorales ; en France, il semble absent de la plupart des départements de l'est et du sud (Corse comprise).
 </t>
         </is>
       </c>
@@ -640,10 +660,12 @@
           <t>Biotope et stridulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce criquet affectionne les prairies denses humides à moyennement humides, les prés salés dans les zones littorales, il est en régression dans des régions où se réduit son habitat favori. Les adultes se montrent de juin à octobre.
-Le chant est constitué de 2 à 6 accents très brefs, durant moins d'une seconde, répétés toutes les deux secondes, les séries étant reprises à intervalles irréguliers[4]. Comme chez Chorthippus brunneus, le Criquet duettiste, il arrive que des mâles en compétition alternent leurs chants.
+Le chant est constitué de 2 à 6 accents très brefs, durant moins d'une seconde, répétés toutes les deux secondes, les séries étant reprises à intervalles irréguliers. Comme chez Chorthippus brunneus, le Criquet duettiste, il arrive que des mâles en compétition alternent leurs chants.
 </t>
         </is>
       </c>
